--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H2">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I2">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J2">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.4088795</v>
+        <v>7.8361885</v>
       </c>
       <c r="N2">
-        <v>6.817759000000001</v>
+        <v>15.672377</v>
       </c>
       <c r="O2">
-        <v>0.04462917857418398</v>
+        <v>0.09001805498645199</v>
       </c>
       <c r="P2">
-        <v>0.03188023676415588</v>
+        <v>0.06711902050968227</v>
       </c>
       <c r="Q2">
-        <v>160.3138197209283</v>
+        <v>513.2621540149232</v>
       </c>
       <c r="R2">
-        <v>641.2552788837131</v>
+        <v>2053.048616059693</v>
       </c>
       <c r="S2">
-        <v>0.00522561280062517</v>
+        <v>0.0133551994637895</v>
       </c>
       <c r="T2">
-        <v>0.002618539403184849</v>
+        <v>0.007082133364258531</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H3">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I3">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J3">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>129.427233</v>
       </c>
       <c r="O3">
-        <v>0.5648220667934549</v>
+        <v>0.4955975632344872</v>
       </c>
       <c r="P3">
-        <v>0.6052092530360149</v>
+        <v>0.5542891870351526</v>
       </c>
       <c r="Q3">
-        <v>2028.914398229739</v>
+        <v>2825.782815109299</v>
       </c>
       <c r="R3">
-        <v>12173.48638937843</v>
+        <v>16954.6968906558</v>
       </c>
       <c r="S3">
-        <v>0.06613479155582712</v>
+        <v>0.07352751969325219</v>
       </c>
       <c r="T3">
-        <v>0.04970992806517308</v>
+        <v>0.05848640095072768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H4">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I4">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J4">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.580051</v>
+        <v>5.883155333333334</v>
       </c>
       <c r="N4">
-        <v>16.740153</v>
+        <v>17.649466</v>
       </c>
       <c r="O4">
-        <v>0.07305423747951603</v>
+        <v>0.06758262646308703</v>
       </c>
       <c r="P4">
-        <v>0.07827792697104638</v>
+        <v>0.07558616478144571</v>
       </c>
       <c r="Q4">
-        <v>262.4203319734785</v>
+        <v>385.3405234944323</v>
       </c>
       <c r="R4">
-        <v>1574.521991840871</v>
+        <v>2312.043140966594</v>
       </c>
       <c r="S4">
-        <v>0.008553891662565745</v>
+        <v>0.01002664917429228</v>
       </c>
       <c r="T4">
-        <v>0.006429495417166118</v>
+        <v>0.007975552911976694</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H5">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I5">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J5">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.8826895</v>
+        <v>19.8164275</v>
       </c>
       <c r="N5">
-        <v>23.765379</v>
+        <v>39.632855</v>
       </c>
       <c r="O5">
-        <v>0.1555686176754212</v>
+        <v>0.2276408052626656</v>
       </c>
       <c r="P5">
-        <v>0.1111282914678999</v>
+        <v>0.1697329261287081</v>
       </c>
       <c r="Q5">
-        <v>558.8227282022633</v>
+        <v>1297.955283175049</v>
       </c>
       <c r="R5">
-        <v>2235.290912809053</v>
+        <v>5191.821132700195</v>
       </c>
       <c r="S5">
-        <v>0.01821546767993832</v>
+        <v>0.03377309541778169</v>
       </c>
       <c r="T5">
-        <v>0.009127717970541601</v>
+        <v>0.01790954650442116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H6">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I6">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J6">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.152783</v>
+        <v>5.127638333333334</v>
       </c>
       <c r="N6">
-        <v>12.458349</v>
+        <v>15.382915</v>
       </c>
       <c r="O6">
-        <v>0.05436839116396912</v>
+        <v>0.0589036403910701</v>
       </c>
       <c r="P6">
-        <v>0.05825596296532109</v>
+        <v>0.06587936133642644</v>
       </c>
       <c r="Q6">
-        <v>195.2983392936405</v>
+        <v>335.8549498874558</v>
       </c>
       <c r="R6">
-        <v>1171.790035761843</v>
+        <v>2015.129699324735</v>
       </c>
       <c r="S6">
-        <v>0.006365973336111939</v>
+        <v>0.008739023151349643</v>
       </c>
       <c r="T6">
-        <v>0.004784956135165317</v>
+        <v>0.006951329435289429</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H7">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I7">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J7">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.215490333333333</v>
+        <v>5.245477</v>
       </c>
       <c r="N7">
-        <v>24.646471</v>
+        <v>15.736431</v>
       </c>
       <c r="O7">
-        <v>0.1075575083134548</v>
+        <v>0.06025730966223812</v>
       </c>
       <c r="P7">
-        <v>0.1152483287955619</v>
+        <v>0.06739334020858481</v>
       </c>
       <c r="Q7">
-        <v>386.3605727973163</v>
+        <v>343.5732593537965</v>
       </c>
       <c r="R7">
-        <v>2318.163436783897</v>
+        <v>2061.439556122779</v>
       </c>
       <c r="S7">
-        <v>0.01259386594606205</v>
+        <v>0.00893985534137166</v>
       </c>
       <c r="T7">
-        <v>0.009466124493833336</v>
+        <v>0.007111078493036011</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J8">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.4088795</v>
+        <v>7.8361885</v>
       </c>
       <c r="N8">
-        <v>6.817759000000001</v>
+        <v>15.672377</v>
       </c>
       <c r="O8">
-        <v>0.04462917857418398</v>
+        <v>0.09001805498645199</v>
       </c>
       <c r="P8">
-        <v>0.03188023676415588</v>
+        <v>0.06711902050968227</v>
       </c>
       <c r="Q8">
-        <v>42.03579874015384</v>
+        <v>96.63012220757817</v>
       </c>
       <c r="R8">
-        <v>252.214792440923</v>
+        <v>579.780733245469</v>
       </c>
       <c r="S8">
-        <v>0.001370205066309547</v>
+        <v>0.002514338036026401</v>
       </c>
       <c r="T8">
-        <v>0.001029908671040211</v>
+        <v>0.001999993786193238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J9">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>129.427233</v>
       </c>
       <c r="O9">
-        <v>0.5648220667934549</v>
+        <v>0.4955975632344872</v>
       </c>
       <c r="P9">
-        <v>0.6052092530360149</v>
+        <v>0.5542891870351526</v>
       </c>
       <c r="Q9">
         <v>532.0005315415224</v>
@@ -1013,10 +1013,10 @@
         <v>4788.004783873701</v>
       </c>
       <c r="S9">
-        <v>0.01734116742026485</v>
+        <v>0.01384277636291978</v>
       </c>
       <c r="T9">
-        <v>0.01955161945962622</v>
+        <v>0.01651655404691862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J10">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.580051</v>
+        <v>5.883155333333334</v>
       </c>
       <c r="N10">
-        <v>16.740153</v>
+        <v>17.649466</v>
       </c>
       <c r="O10">
-        <v>0.07305423747951603</v>
+        <v>0.06758262646308703</v>
       </c>
       <c r="P10">
-        <v>0.07827792697104638</v>
+        <v>0.07558616478144571</v>
       </c>
       <c r="Q10">
-        <v>68.80909131454901</v>
+        <v>72.54675137360023</v>
       </c>
       <c r="R10">
-        <v>619.281821830941</v>
+        <v>652.920762362402</v>
       </c>
       <c r="S10">
-        <v>0.002242911241205696</v>
+        <v>0.001887683179960714</v>
       </c>
       <c r="T10">
-        <v>0.002528811700331415</v>
+        <v>0.002252295381206617</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J11">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.8826895</v>
+        <v>19.8164275</v>
       </c>
       <c r="N11">
-        <v>23.765379</v>
+        <v>39.632855</v>
       </c>
       <c r="O11">
-        <v>0.1555686176754212</v>
+        <v>0.2276408052626656</v>
       </c>
       <c r="P11">
-        <v>0.1111282914678999</v>
+        <v>0.1697329261287081</v>
       </c>
       <c r="Q11">
-        <v>146.5286010590105</v>
+        <v>244.3616320667392</v>
       </c>
       <c r="R11">
-        <v>879.171606354063</v>
+        <v>1466.169792400435</v>
       </c>
       <c r="S11">
-        <v>0.004776267789542945</v>
+        <v>0.006358345948595999</v>
       </c>
       <c r="T11">
-        <v>0.003590060884031974</v>
+        <v>0.005057654223676318</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J12">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.152783</v>
+        <v>5.127638333333334</v>
       </c>
       <c r="N12">
-        <v>12.458349</v>
+        <v>15.382915</v>
       </c>
       <c r="O12">
-        <v>0.05436839116396912</v>
+        <v>0.0589036403910701</v>
       </c>
       <c r="P12">
-        <v>0.05825596296532109</v>
+        <v>0.06587936133642644</v>
       </c>
       <c r="Q12">
-        <v>51.209070429017</v>
+        <v>63.23027053091722</v>
       </c>
       <c r="R12">
-        <v>460.881633861153</v>
+        <v>569.072434778255</v>
       </c>
       <c r="S12">
-        <v>0.001669218376854964</v>
+        <v>0.001645266202629891</v>
       </c>
       <c r="T12">
-        <v>0.001881991085625811</v>
+        <v>0.001963054769135451</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J13">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.215490333333333</v>
+        <v>5.245477</v>
       </c>
       <c r="N13">
-        <v>24.646471</v>
+        <v>15.736431</v>
       </c>
       <c r="O13">
-        <v>0.1075575083134548</v>
+        <v>0.06025730966223812</v>
       </c>
       <c r="P13">
-        <v>0.1152483287955619</v>
+        <v>0.06739334020858481</v>
       </c>
       <c r="Q13">
-        <v>101.3073938822652</v>
+        <v>64.68337043538968</v>
       </c>
       <c r="R13">
-        <v>911.766544940387</v>
+        <v>582.150333918507</v>
       </c>
       <c r="S13">
-        <v>0.003302230682237504</v>
+        <v>0.001683076196827279</v>
       </c>
       <c r="T13">
-        <v>0.003723160967326816</v>
+        <v>0.00200816788779766</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H14">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I14">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J14">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.4088795</v>
+        <v>7.8361885</v>
       </c>
       <c r="N14">
-        <v>6.817759000000001</v>
+        <v>15.672377</v>
       </c>
       <c r="O14">
-        <v>0.04462917857418398</v>
+        <v>0.09001805498645199</v>
       </c>
       <c r="P14">
-        <v>0.03188023676415588</v>
+        <v>0.06711902050968227</v>
       </c>
       <c r="Q14">
-        <v>439.9138905086813</v>
+        <v>972.3286510979603</v>
       </c>
       <c r="R14">
-        <v>2639.483343052088</v>
+        <v>5833.971906587762</v>
       </c>
       <c r="S14">
-        <v>0.01433949775145233</v>
+        <v>0.02530021545167948</v>
       </c>
       <c r="T14">
-        <v>0.01077822103837266</v>
+        <v>0.02012469006461698</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H15">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I15">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J15">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>129.427233</v>
       </c>
       <c r="O15">
-        <v>0.5648220667934549</v>
+        <v>0.4955975632344872</v>
       </c>
       <c r="P15">
-        <v>0.6052092530360149</v>
+        <v>0.5542891870351526</v>
       </c>
       <c r="Q15">
-        <v>5567.502714289118</v>
+        <v>5353.189537584989</v>
       </c>
       <c r="R15">
-        <v>50107.52442860206</v>
+        <v>48178.7058382649</v>
       </c>
       <c r="S15">
-        <v>0.1814791357473129</v>
+        <v>0.1392912247331603</v>
       </c>
       <c r="T15">
-        <v>0.2046120031023332</v>
+        <v>0.1661957819191031</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H16">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I16">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J16">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.580051</v>
+        <v>5.883155333333334</v>
       </c>
       <c r="N16">
-        <v>16.740153</v>
+        <v>17.649466</v>
       </c>
       <c r="O16">
-        <v>0.07305423747951603</v>
+        <v>0.06758262646308703</v>
       </c>
       <c r="P16">
-        <v>0.07827792697104638</v>
+        <v>0.07558616478144571</v>
       </c>
       <c r="Q16">
-        <v>720.102293039944</v>
+        <v>729.9927113110884</v>
       </c>
       <c r="R16">
-        <v>6480.920637359496</v>
+        <v>6569.934401799796</v>
       </c>
       <c r="S16">
-        <v>0.02347256005015411</v>
+        <v>0.0189945784827701</v>
       </c>
       <c r="T16">
-        <v>0.02646457131297501</v>
+        <v>0.02266344365350548</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H17">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I17">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J17">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.8826895</v>
+        <v>19.8164275</v>
       </c>
       <c r="N17">
-        <v>23.765379</v>
+        <v>39.632855</v>
       </c>
       <c r="O17">
-        <v>0.1555686176754212</v>
+        <v>0.2276408052626656</v>
       </c>
       <c r="P17">
-        <v>0.1111282914678999</v>
+        <v>0.1697329261287081</v>
       </c>
       <c r="Q17">
-        <v>1533.454077109988</v>
+        <v>2458.858693949938</v>
       </c>
       <c r="R17">
-        <v>9200.724462659928</v>
+        <v>14753.15216369963</v>
       </c>
       <c r="S17">
-        <v>0.04998469419833003</v>
+        <v>0.0639800695494482</v>
       </c>
       <c r="T17">
-        <v>0.03757077771782485</v>
+        <v>0.05089201996933237</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H18">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I18">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J18">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.152783</v>
+        <v>5.127638333333334</v>
       </c>
       <c r="N18">
-        <v>12.458349</v>
+        <v>15.382915</v>
       </c>
       <c r="O18">
-        <v>0.05436839116396912</v>
+        <v>0.0589036403910701</v>
       </c>
       <c r="P18">
-        <v>0.05825596296532109</v>
+        <v>0.06587936133642644</v>
       </c>
       <c r="Q18">
-        <v>535.914198776552</v>
+        <v>636.2467753255545</v>
       </c>
       <c r="R18">
-        <v>4823.227788988968</v>
+        <v>5726.22097792999</v>
       </c>
       <c r="S18">
-        <v>0.01746873789195818</v>
+        <v>0.01655528763653707</v>
       </c>
       <c r="T18">
-        <v>0.01969545114387132</v>
+        <v>0.01975299577500896</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H19">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I19">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J19">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.215490333333333</v>
+        <v>5.245477</v>
       </c>
       <c r="N19">
-        <v>24.646471</v>
+        <v>15.736431</v>
       </c>
       <c r="O19">
-        <v>0.1075575083134548</v>
+        <v>0.06025730966223812</v>
       </c>
       <c r="P19">
-        <v>0.1152483287955619</v>
+        <v>0.06739334020858481</v>
       </c>
       <c r="Q19">
-        <v>1060.204185854363</v>
+        <v>650.8684133587874</v>
       </c>
       <c r="R19">
-        <v>9541.837672689271</v>
+        <v>5857.815720229086</v>
       </c>
       <c r="S19">
-        <v>0.0345585712730273</v>
+        <v>0.01693574602586823</v>
       </c>
       <c r="T19">
-        <v>0.0389636993994422</v>
+        <v>0.02020694095083539</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H20">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I20">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J20">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.4088795</v>
+        <v>7.8361885</v>
       </c>
       <c r="N20">
-        <v>6.817759000000001</v>
+        <v>15.672377</v>
       </c>
       <c r="O20">
-        <v>0.04462917857418398</v>
+        <v>0.09001805498645199</v>
       </c>
       <c r="P20">
-        <v>0.03188023676415588</v>
+        <v>0.06711902050968227</v>
       </c>
       <c r="Q20">
-        <v>43.56861277026051</v>
+        <v>136.7520446709095</v>
       </c>
       <c r="R20">
-        <v>174.274451081042</v>
+        <v>547.008178683638</v>
       </c>
       <c r="S20">
-        <v>0.001420168897441802</v>
+        <v>0.003558319699542754</v>
       </c>
       <c r="T20">
-        <v>0.0007116425114168512</v>
+        <v>0.001886942589899707</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H21">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I21">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J21">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>129.427233</v>
       </c>
       <c r="O21">
-        <v>0.5648220667934549</v>
+        <v>0.4955975632344872</v>
       </c>
       <c r="P21">
-        <v>0.6052092530360149</v>
+        <v>0.5542891870351526</v>
       </c>
       <c r="Q21">
-        <v>551.3996604557091</v>
+        <v>752.893184777617</v>
       </c>
       <c r="R21">
-        <v>3308.397962734254</v>
+        <v>4517.359108665702</v>
       </c>
       <c r="S21">
-        <v>0.0179735042740147</v>
+        <v>0.01959045407688572</v>
       </c>
       <c r="T21">
-        <v>0.01350970621546669</v>
+        <v>0.015582943049454</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H22">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I22">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J22">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.580051</v>
+        <v>5.883155333333334</v>
       </c>
       <c r="N22">
-        <v>16.740153</v>
+        <v>17.649466</v>
       </c>
       <c r="O22">
-        <v>0.07305423747951603</v>
+        <v>0.06758262646308703</v>
       </c>
       <c r="P22">
-        <v>0.07827792697104638</v>
+        <v>0.07558616478144571</v>
       </c>
       <c r="Q22">
-        <v>71.318179846869</v>
+        <v>102.6689851769007</v>
       </c>
       <c r="R22">
-        <v>427.909079081214</v>
+        <v>616.013911061404</v>
       </c>
       <c r="S22">
-        <v>0.002324697859322697</v>
+        <v>0.002671470641380056</v>
       </c>
       <c r="T22">
-        <v>0.001747349022225974</v>
+        <v>0.002124982642032335</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H23">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I23">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J23">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.8826895</v>
+        <v>19.8164275</v>
       </c>
       <c r="N23">
-        <v>23.765379</v>
+        <v>39.632855</v>
       </c>
       <c r="O23">
-        <v>0.1555686176754212</v>
+        <v>0.2276408052626656</v>
       </c>
       <c r="P23">
-        <v>0.1111282914678999</v>
+        <v>0.1697329261287081</v>
       </c>
       <c r="Q23">
-        <v>151.8716920016505</v>
+        <v>345.8233526028425</v>
       </c>
       <c r="R23">
-        <v>607.486768006602</v>
+        <v>1383.29341041137</v>
       </c>
       <c r="S23">
-        <v>0.004950431966239429</v>
+        <v>0.008998403285961125</v>
       </c>
       <c r="T23">
-        <v>0.002480647085990175</v>
+        <v>0.004771766405237668</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H24">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I24">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J24">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.152783</v>
+        <v>5.127638333333334</v>
       </c>
       <c r="N24">
-        <v>12.458349</v>
+        <v>15.382915</v>
       </c>
       <c r="O24">
-        <v>0.05436839116396912</v>
+        <v>0.0589036403910701</v>
       </c>
       <c r="P24">
-        <v>0.05825596296532109</v>
+        <v>0.06587936133642644</v>
       </c>
       <c r="Q24">
-        <v>53.076383147577</v>
+        <v>89.48419584550166</v>
       </c>
       <c r="R24">
-        <v>318.458298885462</v>
+        <v>536.90517507301</v>
       </c>
       <c r="S24">
-        <v>0.001730085576338225</v>
+        <v>0.002328399386210602</v>
       </c>
       <c r="T24">
-        <v>0.001300411289173996</v>
+        <v>0.001852091579363299</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H25">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I25">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J25">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.215490333333333</v>
+        <v>5.245477</v>
       </c>
       <c r="N25">
-        <v>24.646471</v>
+        <v>15.736431</v>
       </c>
       <c r="O25">
-        <v>0.1075575083134548</v>
+        <v>0.06025730966223812</v>
       </c>
       <c r="P25">
-        <v>0.1152483287955619</v>
+        <v>0.06739334020858481</v>
       </c>
       <c r="Q25">
-        <v>105.0015164956163</v>
+        <v>91.540639307519</v>
       </c>
       <c r="R25">
-        <v>630.009098973698</v>
+        <v>549.2438358451139</v>
       </c>
       <c r="S25">
-        <v>0.003422644845214911</v>
+        <v>0.00238190851873949</v>
       </c>
       <c r="T25">
-        <v>0.002572616092766346</v>
+        <v>0.00189465464408609</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H26">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I26">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J26">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.4088795</v>
+        <v>7.8361885</v>
       </c>
       <c r="N26">
-        <v>6.817759000000001</v>
+        <v>15.672377</v>
       </c>
       <c r="O26">
-        <v>0.04462917857418398</v>
+        <v>0.09001805498645199</v>
       </c>
       <c r="P26">
-        <v>0.03188023676415588</v>
+        <v>0.06711902050968227</v>
       </c>
       <c r="Q26">
-        <v>142.5262234256575</v>
+        <v>1084.822324572247</v>
       </c>
       <c r="R26">
-        <v>855.1573405539451</v>
+        <v>6508.933947433485</v>
       </c>
       <c r="S26">
-        <v>0.004645805700683771</v>
+        <v>0.02822732674541384</v>
       </c>
       <c r="T26">
-        <v>0.003491999623085121</v>
+        <v>0.02245301836219809</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H27">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I27">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J27">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>129.427233</v>
       </c>
       <c r="O27">
-        <v>0.5648220667934549</v>
+        <v>0.4955975632344872</v>
       </c>
       <c r="P27">
-        <v>0.6052092530360149</v>
+        <v>0.5542891870351526</v>
       </c>
       <c r="Q27">
-        <v>1803.796499497135</v>
+        <v>5972.527407766072</v>
       </c>
       <c r="R27">
-        <v>16234.16849547422</v>
+        <v>53752.74666989464</v>
       </c>
       <c r="S27">
-        <v>0.05879681548292987</v>
+        <v>0.1554065387633205</v>
       </c>
       <c r="T27">
-        <v>0.06629155545875852</v>
+        <v>0.1854238217417492</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H28">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I28">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J28">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.580051</v>
+        <v>5.883155333333334</v>
       </c>
       <c r="N28">
-        <v>16.740153</v>
+        <v>17.649466</v>
       </c>
       <c r="O28">
-        <v>0.07305423747951603</v>
+        <v>0.06758262646308703</v>
       </c>
       <c r="P28">
-        <v>0.07827792697104638</v>
+        <v>0.07558616478144571</v>
       </c>
       <c r="Q28">
-        <v>233.303522624535</v>
+        <v>814.4493007699192</v>
       </c>
       <c r="R28">
-        <v>2099.731703620815</v>
+        <v>7330.043706929272</v>
       </c>
       <c r="S28">
-        <v>0.007604795870873751</v>
+        <v>0.02119215839282377</v>
       </c>
       <c r="T28">
-        <v>0.008574167547780325</v>
+        <v>0.0252854933352478</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H29">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I29">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J29">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.8826895</v>
+        <v>19.8164275</v>
       </c>
       <c r="N29">
-        <v>23.765379</v>
+        <v>39.632855</v>
       </c>
       <c r="O29">
-        <v>0.1555686176754212</v>
+        <v>0.2276408052626656</v>
       </c>
       <c r="P29">
-        <v>0.1111282914678999</v>
+        <v>0.1697329261287081</v>
       </c>
       <c r="Q29">
-        <v>496.8186345615075</v>
+        <v>2743.336629187444</v>
       </c>
       <c r="R29">
-        <v>2980.911807369045</v>
+        <v>16460.01977512466</v>
       </c>
       <c r="S29">
-        <v>0.01619437314183596</v>
+        <v>0.07138225094627373</v>
       </c>
       <c r="T29">
-        <v>0.0121724300478317</v>
+        <v>0.05677997798683214</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H30">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I30">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J30">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.152783</v>
+        <v>5.127638333333334</v>
       </c>
       <c r="N30">
-        <v>12.458349</v>
+        <v>15.382915</v>
       </c>
       <c r="O30">
-        <v>0.05436839116396912</v>
+        <v>0.0589036403910701</v>
       </c>
       <c r="P30">
-        <v>0.05825596296532109</v>
+        <v>0.06587936133642644</v>
       </c>
       <c r="Q30">
-        <v>173.629040773155</v>
+        <v>709.8574180971311</v>
       </c>
       <c r="R30">
-        <v>1562.661366958395</v>
+        <v>6388.716762874181</v>
       </c>
       <c r="S30">
-        <v>0.005659637700629386</v>
+        <v>0.0184706535157123</v>
       </c>
       <c r="T30">
-        <v>0.006381063046121589</v>
+        <v>0.022038320859633</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H31">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I31">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J31">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.215490333333333</v>
+        <v>5.245477</v>
       </c>
       <c r="N31">
-        <v>24.646471</v>
+        <v>15.736431</v>
       </c>
       <c r="O31">
-        <v>0.1075575083134548</v>
+        <v>0.06025730966223812</v>
       </c>
       <c r="P31">
-        <v>0.1152483287955619</v>
+        <v>0.06739334020858481</v>
       </c>
       <c r="Q31">
-        <v>343.4919922514117</v>
+        <v>726.1707081995614</v>
       </c>
       <c r="R31">
-        <v>3091.427930262705</v>
+        <v>6535.536373796052</v>
       </c>
       <c r="S31">
-        <v>0.01119651540176542</v>
+        <v>0.01889512908151114</v>
       </c>
       <c r="T31">
-        <v>0.01262371806371835</v>
+        <v>0.02254478527401831</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H32">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I32">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J32">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.4088795</v>
+        <v>7.8361885</v>
       </c>
       <c r="N32">
-        <v>6.817759000000001</v>
+        <v>15.672377</v>
       </c>
       <c r="O32">
-        <v>0.04462917857418398</v>
+        <v>0.09001805498645199</v>
       </c>
       <c r="P32">
-        <v>0.03188023676415588</v>
+        <v>0.06711902050968227</v>
       </c>
       <c r="Q32">
-        <v>540.7966919964463</v>
+        <v>655.7457554327855</v>
       </c>
       <c r="R32">
-        <v>3244.780151978678</v>
+        <v>3934.474532596713</v>
       </c>
       <c r="S32">
-        <v>0.01762788835767136</v>
+        <v>0.01706265559000002</v>
       </c>
       <c r="T32">
-        <v>0.01324992551705618</v>
+        <v>0.01357224234251572</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H33">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I33">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J33">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>129.427233</v>
       </c>
       <c r="O33">
-        <v>0.5648220667934549</v>
+        <v>0.4955975632344872</v>
       </c>
       <c r="P33">
-        <v>0.6052092530360149</v>
+        <v>0.5542891870351526</v>
       </c>
       <c r="Q33">
-        <v>6844.264560701279</v>
+        <v>3610.231286854153</v>
       </c>
       <c r="R33">
-        <v>61598.3810463115</v>
+        <v>32492.08158168738</v>
       </c>
       <c r="S33">
-        <v>0.2230966523131055</v>
+        <v>0.09393904960494866</v>
       </c>
       <c r="T33">
-        <v>0.2515344407346572</v>
+        <v>0.1120836853272001</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H34">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I34">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J34">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.580051</v>
+        <v>5.883155333333334</v>
       </c>
       <c r="N34">
-        <v>16.740153</v>
+        <v>17.649466</v>
       </c>
       <c r="O34">
-        <v>0.07305423747951603</v>
+        <v>0.06758262646308703</v>
       </c>
       <c r="P34">
-        <v>0.07827792697104638</v>
+        <v>0.07558616478144571</v>
       </c>
       <c r="Q34">
-        <v>885.2390124002511</v>
+        <v>492.3125749699727</v>
       </c>
       <c r="R34">
-        <v>7967.151111602259</v>
+        <v>4430.813174729754</v>
       </c>
       <c r="S34">
-        <v>0.02885538079539404</v>
+        <v>0.01281008659186011</v>
       </c>
       <c r="T34">
-        <v>0.03253353197056754</v>
+        <v>0.01528439685747679</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H35">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I35">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J35">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.8826895</v>
+        <v>19.8164275</v>
       </c>
       <c r="N35">
-        <v>23.765379</v>
+        <v>39.632855</v>
       </c>
       <c r="O35">
-        <v>0.1555686176754212</v>
+        <v>0.2276408052626656</v>
       </c>
       <c r="P35">
-        <v>0.1111282914678999</v>
+        <v>0.1697329261287081</v>
       </c>
       <c r="Q35">
-        <v>1885.11185966559</v>
+        <v>1658.272796904582</v>
       </c>
       <c r="R35">
-        <v>11310.67115799354</v>
+        <v>9949.636781427494</v>
       </c>
       <c r="S35">
-        <v>0.0614473828995345</v>
+        <v>0.04314864011460483</v>
       </c>
       <c r="T35">
-        <v>0.04618665776167962</v>
+        <v>0.03432196103920841</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H36">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I36">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J36">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.152783</v>
+        <v>5.127638333333334</v>
       </c>
       <c r="N36">
-        <v>12.458349</v>
+        <v>15.382915</v>
       </c>
       <c r="O36">
-        <v>0.05436839116396912</v>
+        <v>0.0589036403910701</v>
       </c>
       <c r="P36">
-        <v>0.05825596296532109</v>
+        <v>0.06587936133642644</v>
       </c>
       <c r="Q36">
-        <v>658.8121724393832</v>
+        <v>429.0896106541816</v>
       </c>
       <c r="R36">
-        <v>5929.309551954448</v>
+        <v>3861.806495887635</v>
       </c>
       <c r="S36">
-        <v>0.02147473828207643</v>
+        <v>0.0111650104986306</v>
       </c>
       <c r="T36">
-        <v>0.02421209026536305</v>
+        <v>0.01332156891799631</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H37">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I37">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J37">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.215490333333333</v>
+        <v>5.245477</v>
       </c>
       <c r="N37">
-        <v>24.646471</v>
+        <v>15.736431</v>
       </c>
       <c r="O37">
-        <v>0.1075575083134548</v>
+        <v>0.06025730966223812</v>
       </c>
       <c r="P37">
-        <v>0.1152483287955619</v>
+        <v>0.06739334020858481</v>
       </c>
       <c r="Q37">
-        <v>1303.334422761335</v>
+        <v>438.950553316871</v>
       </c>
       <c r="R37">
-        <v>11730.00980485201</v>
+        <v>3950.554979851839</v>
       </c>
       <c r="S37">
-        <v>0.0424836801651476</v>
+        <v>0.01142159449792032</v>
       </c>
       <c r="T37">
-        <v>0.04789900977847488</v>
+        <v>0.01362771295881136</v>
       </c>
     </row>
   </sheetData>
